--- a/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-10.xlsx
+++ b/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,80 +1787,6 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Outsourced Items</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>6806986</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1684200</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Other Income(Loss)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>5122786</v>
-      </c>
-      <c r="H37" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Other</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>921477</v>
-      </c>
-      <c r="C38" t="n">
-        <v>937247</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Other Income(Loss)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>-15770</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
